--- a/experiments_parameters.xlsx
+++ b/experiments_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="2130"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="22">
   <si>
     <t>algorithm</t>
   </si>
@@ -95,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,12 +105,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,7 +132,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +506,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>30</v>
@@ -522,7 +515,7 @@
         <v>51</v>
       </c>
       <c r="H2">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -540,7 +533,7 @@
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -557,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -566,7 +559,7 @@
         <v>51</v>
       </c>
       <c r="H3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0.9</v>
@@ -584,7 +577,7 @@
         <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -601,7 +594,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -610,7 +603,7 @@
         <v>51</v>
       </c>
       <c r="H4">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>0.8</v>
@@ -628,7 +621,7 @@
         <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -645,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -654,7 +647,7 @@
         <v>51</v>
       </c>
       <c r="H5">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>0.7</v>
@@ -672,7 +665,7 @@
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -689,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>30</v>
@@ -698,7 +691,7 @@
         <v>51</v>
       </c>
       <c r="H6">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>0.6</v>
@@ -716,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -733,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -742,7 +735,7 @@
         <v>51</v>
       </c>
       <c r="H7">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>0.5</v>
@@ -760,7 +753,7 @@
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -777,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -786,7 +779,7 @@
         <v>51</v>
       </c>
       <c r="H8">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>0.4</v>
@@ -804,7 +797,7 @@
         <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -821,7 +814,7 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -830,7 +823,7 @@
         <v>51</v>
       </c>
       <c r="H9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>0.3</v>
@@ -848,7 +841,7 @@
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -865,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -874,7 +867,7 @@
         <v>51</v>
       </c>
       <c r="H10">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>0.2</v>
@@ -892,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -909,7 +902,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -918,7 +911,7 @@
         <v>51</v>
       </c>
       <c r="H11">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>0.1</v>
@@ -936,7 +929,7 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -953,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -962,7 +955,7 @@
         <v>51</v>
       </c>
       <c r="H12">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I12">
         <v>0.01</v>
@@ -980,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -997,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>30</v>
@@ -1006,10 +999,10 @@
         <v>51</v>
       </c>
       <c r="H13">
-        <v>300</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1E-3</v>
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -1023,7 +1016,7 @@
       <c r="M13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1041,7 +1034,7 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>30</v>
@@ -1050,10 +1043,10 @@
         <v>51</v>
       </c>
       <c r="H14">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -1068,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1085,7 +1078,7 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -1094,10 +1087,10 @@
         <v>51</v>
       </c>
       <c r="H15">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I15">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -1112,7 +1105,7 @@
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1129,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -1138,10 +1131,10 @@
         <v>51</v>
       </c>
       <c r="H16">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I16">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1156,7 +1149,7 @@
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1173,7 +1166,7 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -1182,10 +1175,10 @@
         <v>51</v>
       </c>
       <c r="H17">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1200,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1217,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>30</v>
@@ -1226,10 +1219,10 @@
         <v>51</v>
       </c>
       <c r="H18">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -1244,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1261,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -1270,10 +1263,10 @@
         <v>51</v>
       </c>
       <c r="H19">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -1288,7 +1281,7 @@
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1305,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1314,10 +1307,10 @@
         <v>51</v>
       </c>
       <c r="H20">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I20">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -1332,7 +1325,7 @@
         <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1349,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1358,10 +1351,10 @@
         <v>51</v>
       </c>
       <c r="H21">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I21">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1376,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1393,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1402,10 +1395,10 @@
         <v>51</v>
       </c>
       <c r="H22">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I22">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
@@ -1420,7 +1413,7 @@
         <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1437,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1446,10 +1439,10 @@
         <v>51</v>
       </c>
       <c r="H23">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
@@ -1464,7 +1457,7 @@
         <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1481,33 +1474,1925 @@
         <v>20</v>
       </c>
       <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>51</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>51</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>0.9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>51</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>0.8</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>51</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>0.7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>51</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>0.6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>51</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>51</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>0.4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>51</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>0.3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>51</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>0.2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>51</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>0.1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>51</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>0.01</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35">
         <v>7</v>
       </c>
-      <c r="F24">
-        <v>30</v>
-      </c>
-      <c r="G24">
-        <v>51</v>
-      </c>
-      <c r="H24">
-        <v>300</v>
-      </c>
-      <c r="I24">
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>51</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>51</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>0.9</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>51</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>0.8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>51</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>0.7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>51</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>0.6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>51</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>51</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>0.4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>51</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>0.3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>51</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>0.2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>51</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>0.1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>51</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
         <v>0.01</v>
       </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>51</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47">
+        <v>0.9</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>51</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>0.8</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>51</v>
+      </c>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49">
+        <v>0.7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>51</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50">
+        <v>0.6</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51">
+        <v>51</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>30</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>0.4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>51</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>0.3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>51</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>0.2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>51</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55">
+        <v>0.1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>51</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>0.01</v>
+      </c>
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>51</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <v>51</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>0.9</v>
+      </c>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>51</v>
+      </c>
+      <c r="H59">
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <v>0.8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>51</v>
+      </c>
+      <c r="H60">
+        <v>30</v>
+      </c>
+      <c r="I60">
+        <v>0.7</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>51</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>0.6</v>
+      </c>
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>51</v>
+      </c>
+      <c r="H62">
+        <v>30</v>
+      </c>
+      <c r="I62">
+        <v>0.5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>51</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63">
+        <v>0.4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>51</v>
+      </c>
+      <c r="H64">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>0.3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>14</v>
+      </c>
+      <c r="F65">
+        <v>30</v>
+      </c>
+      <c r="G65">
+        <v>51</v>
+      </c>
+      <c r="H65">
+        <v>30</v>
+      </c>
+      <c r="I65">
+        <v>0.2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66">
+        <v>51</v>
+      </c>
+      <c r="H66">
+        <v>30</v>
+      </c>
+      <c r="I66">
+        <v>0.1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>14</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>51</v>
+      </c>
+      <c r="H67">
+        <v>30</v>
+      </c>
+      <c r="I67">
+        <v>0.01</v>
+      </c>
+      <c r="J67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" t="s">
         <v>18</v>
       </c>
     </row>
